--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed2/result_data_KNN.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.76</v>
+        <v>-8.183</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.494</v>
+        <v>-7.804</v>
       </c>
     </row>
     <row r="15">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.618</v>
+        <v>-8.353</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.453999999999999</v>
+        <v>-8.300999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.430000000000001</v>
+        <v>-7.980000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.529999999999999</v>
+        <v>-7.842999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.294</v>
+        <v>-7.399000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.388</v>
+        <v>-7.227000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.768000000000001</v>
+        <v>-8.382</v>
       </c>
     </row>
     <row r="41">
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.934</v>
+        <v>-7.947999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.752000000000001</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.978</v>
+        <v>-8.137</v>
       </c>
     </row>
     <row r="60">
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.489999999999999</v>
+        <v>-7.545</v>
       </c>
     </row>
     <row r="66">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.522</v>
+        <v>-7.640000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1544,7 +1544,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.553999999999999</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="80">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.484</v>
+        <v>-8.264999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.110000000000001</v>
+        <v>-7.589</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.092000000000001</v>
+        <v>-6.976999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.984</v>
+        <v>-7.969000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.926</v>
+        <v>-7.995999999999998</v>
       </c>
     </row>
     <row r="104">
